--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_48.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_48.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1849"/>
+  <dimension ref="A1:N1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.851486921310425</v>
+        <v>0.001678943634033203</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05030608177185059</v>
+        <v>0.0009639263153076172</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09735989570617676</v>
+        <v>0.1134917736053467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 3), (3, 5), (3, 6), (5, 1), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (2, 2), (2, 0), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (1, 6), (0, 6), (4, 3), (3, 2), (3, 1), (6, 2), (5, 0), (6, 0), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 3], [3, 5], [3, 6], [5, 1], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [2, 2], [2, 0], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [1, 6], [0, 6], [4, 3], [3, 2], [3, 1], [6, 2], [5, 0], [6, 0], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (6, 4), (4, 4), (5, 6), (3, 5), (3, 3), (1, 5), (3, 6), (5, 1), (2, 4), (1, 4), (0, 5), (0, 4), (2, 3), (2, 5), (0, 0), (3, 4), (2, 6), (1, 6), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (6, 2), (0, 6), (5, 0), (6, 1), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [6, 4], [4, 4], [5, 6], [3, 5], [3, 3], [1, 5], [3, 6], [5, 1], [2, 4], [1, 4], [0, 5], [0, 4], [2, 3], [2, 5], [0, 0], [3, 4], [2, 6], [1, 6], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [6, 2], [0, 6], [5, 0], [6, 1], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (6, 4), (4, 4), (5, 6), (3, 5), (3, 3), (2, 2), (2, 3), (5, 1), (2, 0), (3, 4), (2, 1), (3, 1), (3, 2), (4, 5), (3, 0), (4, 3), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (5, 0), (6, 1), (6, 2), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [6, 4], [4, 4], [5, 6], [3, 5], [3, 3], [2, 2], [2, 3], [5, 1], [2, 0], [3, 4], [2, 1], [3, 1], [3, 2], [4, 5], [3, 0], [4, 3], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [5, 0], [6, 1], [6, 2], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (3, 0), (6, 4), (1, 5), (3, 6), (2, 0), (0, 5), (1, 4), (0, 4), (5, 1), (0, 3), (2, 5), (3, 1), (5, 0), (5, 3), (1, 6), (6, 0), (6, 1), (6, 6), (6, 5), (0, 6), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [3, 0], [6, 4], [1, 5], [3, 6], [2, 0], [0, 5], [1, 4], [0, 4], [5, 1], [0, 3], [2, 5], [3, 1], [5, 0], [5, 3], [1, 6], [6, 0], [6, 1], [6, 6], [6, 5], [0, 6], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (3, 0), (6, 4), (0, 6), (1, 6), (3, 1), (3, 3), (3, 2), (4, 3), (5, 1), (5, 3), (5, 4), (5, 0), (6, 0), (6, 2), (6, 5), (6, 1), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [3, 0], [6, 4], [0, 6], [1, 6], [3, 1], [3, 3], [3, 2], [4, 3], [5, 1], [5, 3], [5, 4], [5, 0], [6, 0], [6, 2], [6, 5], [6, 1], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (4, 2), (3, 1), (5, 3), (0, 6), (1, 6), (3, 2), (3, 3), (4, 3), (5, 0), (5, 1), (6, 2), (6, 1), (6, 0), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [4, 2], [3, 1], [5, 3], [0, 6], [1, 6], [3, 2], [3, 3], [4, 3], [5, 0], [5, 1], [6, 2], [6, 1], [6, 0], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[(4, 0), (5, 2), (4, 1), (3, 0), (3, 1), (3, 2), (3, 3), (0, 6), (1, 6), (4, 3), (5, 0), (6, 1), (6, 0), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[4, 0], [5, 2], [4, 1], [3, 0], [3, 1], [3, 2], [3, 3], [0, 6], [1, 6], [4, 3], [5, 0], [6, 1], [6, 0], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 1), (5, 0), (5, 1), (6, 1), (0, 6), (1, 6), (6, 6), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 0], [4, 1], [3, 1], [5, 0], [5, 1], [6, 1], [0, 6], [1, 6], [6, 6], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>[(0, 6), (5, 1), (3, 3), (6, 0), (6, 1), (6, 6), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[0, 6], [5, 1], [3, 3], [6, 0], [6, 1], [6, 6], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>[(0, 6), (5, 1), (3, 3), (6, 0), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 1), (1, 6)]</t>
+          <t>[[0, 6], [5, 1], [3, 3], [6, 0], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 1], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>[(0, 6), (5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 0), (3, 3), (6, 1), (1, 6)]</t>
+          <t>[[0, 6], [5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 0], [3, 3], [6, 1], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -11032,7 +11032,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (5, 1), (3, 3), (6, 0), (0, 6), (6, 1), (1, 6)]</t>
+          <t>[[4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [5, 1], [3, 3], [6, 0], [0, 6], [6, 1], [1, 6]]</t>
         </is>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>[(4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 0), (0, 6), (3, 1), (5, 1), (3, 3), (6, 0), (1, 6), (6, 1), (6, 6)]</t>
+          <t>[[4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 0], [0, 6], [3, 1], [5, 1], [3, 3], [6, 0], [1, 6], [6, 1], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>[(4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0), (0, 6), (3, 3), (5, 1), (4, 1), (6, 0), (1, 6), (6, 1), (6, 6)]</t>
+          <t>[[4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0], [0, 6], [3, 3], [5, 1], [4, 1], [6, 0], [1, 6], [6, 1], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -14502,7 +14502,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>[(6, 4), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (3, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0), (5, 0), (4, 0), (0, 6), (4, 2), (5, 1), (4, 1), (6, 0), (1, 6), (6, 1), (6, 3)]</t>
+          <t>[[6, 4], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [3, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0], [5, 0], [4, 0], [0, 6], [4, 2], [5, 1], [4, 1], [6, 0], [1, 6], [6, 1], [6, 3]]</t>
         </is>
       </c>
     </row>
@@ -15472,7 +15472,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>[(5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 2), (3, 3), (6, 2), (4, 1), (3, 1), (3, 0), (4, 0), (5, 0), (4, 2), (0, 6), (5, 1), (5, 2), (6, 1), (6, 0), (1, 6), (6, 3), (6, 4)]</t>
+          <t>[[5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 2], [3, 3], [6, 2], [4, 1], [3, 1], [3, 0], [4, 0], [5, 0], [4, 2], [0, 6], [5, 1], [5, 2], [6, 1], [6, 0], [1, 6], [6, 3], [6, 4]]</t>
         </is>
       </c>
     </row>
@@ -16362,7 +16362,7 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (1, 6), (0, 6), (4, 3), (3, 2), (5, 4), (3, 3), (6, 5), (6, 6), (3, 0), (3, 1), (6, 2), (4, 1), (4, 0), (5, 0), (4, 2), (5, 1), (4, 4), (4, 6), (5, 2), (5, 3), (6, 1), (6, 0), (5, 6), (6, 3), (6, 4)]</t>
+          <t>[[3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [1, 6], [0, 6], [4, 3], [3, 2], [5, 4], [3, 3], [6, 5], [6, 6], [3, 0], [3, 1], [6, 2], [4, 1], [4, 0], [5, 0], [4, 2], [5, 1], [4, 4], [4, 6], [5, 2], [5, 3], [6, 1], [6, 0], [5, 6], [6, 3], [6, 4]]</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>[(0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 2), (3, 0), (4, 5), (3, 4), (4, 6), (4, 3), (3, 1), (3, 3), (2, 5), (3, 6), (3, 5), (4, 0), (4, 1), (6, 2), (4, 2), (5, 0), (5, 1), (4, 4), (5, 2), (5, 3), (5, 5), (5, 4), (6, 3), (6, 1), (6, 0), (5, 6), (6, 4), (6, 5)]</t>
+          <t>[[0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 2], [3, 0], [4, 5], [3, 4], [4, 6], [4, 3], [3, 1], [3, 3], [2, 5], [3, 6], [3, 5], [4, 0], [4, 1], [6, 2], [4, 2], [5, 0], [5, 1], [4, 4], [5, 2], [5, 3], [5, 5], [5, 4], [6, 3], [6, 1], [6, 0], [5, 6], [6, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -18000,7 +18000,7 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>[(2, 5), (1, 5), (0, 4), (0, 3), (1, 2), (1, 1), (0, 0), (1, 0), (0, 1), (0, 2), (1, 3), (1, 4), (0, 5), (2, 4), (1, 6), (2, 3), (3, 1), (2, 0), (3, 5), (3, 6), (3, 3), (4, 0), (4, 5), (3, 4), (4, 6), (4, 3), (4, 1), (4, 2), (4, 4), (5, 6), (3, 0), (3, 2), (2, 1), (2, 6), (2, 2), (0, 6), (5, 1), (5, 3), (5, 2), (5, 4), (5, 5), (6, 3), (6, 1), (5, 0), (6, 0), (6, 5), (6, 4), (6, 6)]</t>
+          <t>[[2, 5], [1, 5], [0, 4], [0, 3], [1, 2], [1, 1], [0, 0], [1, 0], [0, 1], [0, 2], [1, 3], [1, 4], [0, 5], [2, 4], [1, 6], [2, 3], [3, 1], [2, 0], [3, 5], [3, 6], [3, 3], [4, 0], [4, 5], [3, 4], [4, 6], [4, 3], [4, 1], [4, 2], [4, 4], [5, 6], [3, 0], [3, 2], [2, 1], [2, 6], [2, 2], [0, 6], [5, 1], [5, 3], [5, 2], [5, 4], [5, 5], [6, 3], [6, 1], [5, 0], [6, 0], [6, 5], [6, 4], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (0, 6), (0, 4), (2, 5), (1, 6), (3, 2), (3, 1), (4, 0), (3, 5), (3, 6), (3, 3), (4, 1), (4, 5), (3, 4), (4, 6), (4, 3), (4, 2), (4, 4), (5, 3), (5, 6), (5, 0), (5, 2), (5, 1), (2, 6), (6, 2), (0, 5), (1, 5), (1, 4), (0, 0), (3, 0), (2, 4), (6, 3), (6, 1), (6, 0), (6, 4), (6, 5), (5, 4), (6, 6)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [0, 6], [0, 4], [2, 5], [1, 6], [3, 2], [3, 1], [4, 0], [3, 5], [3, 6], [3, 3], [4, 1], [4, 5], [3, 4], [4, 6], [4, 3], [4, 2], [4, 4], [5, 3], [5, 6], [5, 0], [5, 2], [5, 1], [2, 6], [6, 2], [0, 5], [1, 5], [1, 4], [0, 0], [3, 0], [2, 4], [6, 3], [6, 1], [6, 0], [6, 4], [6, 5], [5, 4], [6, 6]]</t>
         </is>
       </c>
     </row>
@@ -19364,7 +19364,7 @@
     <row r="1806">
       <c r="A1806" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 4), (0, 5), (3, 0), (3, 1), (2, 3), (1, 6), (2, 4), (2, 5), (2, 6), (3, 2), (3, 3), (4, 0), (3, 5), (3, 6), (3, 4), (4, 1), (4, 5), (4, 3), (4, 6), (4, 2), (4, 4), (5, 3), (5, 1), (5, 6), (5, 0), (5, 2), (6, 0), (5, 5), (6, 2), (5, 4), (6, 4), (6, 3), (6, 1), (6, 5), (0, 6), (1, 5), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 4], [0, 5], [3, 0], [3, 1], [2, 3], [1, 6], [2, 4], [2, 5], [2, 6], [3, 2], [3, 3], [4, 0], [3, 5], [3, 6], [3, 4], [4, 1], [4, 5], [4, 3], [4, 6], [4, 2], [4, 4], [5, 3], [5, 1], [5, 6], [5, 0], [5, 2], [6, 0], [5, 5], [6, 2], [5, 4], [6, 4], [6, 3], [6, 1], [6, 5], [0, 6], [1, 5], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -19663,110 +19663,120 @@
     <row r="1845">
       <c r="A1845" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1845" t="n">
-        <v>306</v>
+        <v>0.9805260500814013</v>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1846" t="n">
-        <v>1508</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1847" t="n">
-        <v>21</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1848" t="n">
-        <v>8.294269800186157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1849" t="n">
+        <v>0.4057350158691406</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1849" t="inlineStr">
+      <c r="B1850" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1849" t="inlineStr">
+      <c r="C1850" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1849" t="inlineStr">
+      <c r="D1850" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1849" t="inlineStr">
+      <c r="E1850" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1849" t="inlineStr">
+      <c r="F1850" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
+      <c r="G1850" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
+      <c r="H1850" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1849" t="inlineStr">
+      <c r="I1850" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1849" t="inlineStr">
+      <c r="J1850" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1849" t="inlineStr">
+      <c r="K1850" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1849" t="inlineStr">
+      <c r="L1850" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1849" t="inlineStr">
+      <c r="M1850" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1849" t="inlineStr">
+      <c r="N1850" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
